--- a/资料/数据/记录数据.xlsx
+++ b/资料/数据/记录数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\数据库作业\DataBaseHomeWork\资料\数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50D74CA2-ECCB-4949-A93B-61094AAB700A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E588076-4D78-43AB-B7CF-7E9B38B0A239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7DD8BADE-7D50-46CC-9D94-B04641FA2E2A}"/>
   </bookViews>
@@ -33,17 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="9">
   <si>
     <t>车位编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -66,13 +58,23 @@
     <t>缴费情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>车辆编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -117,7 +119,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -434,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9145A40-7C2A-49FD-BA6E-DBB5AC0AF8EC}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -447,30 +449,34 @@
     <col min="3" max="3" width="28.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" customWidth="1"/>
     <col min="5" max="5" width="12.21875" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -478,19 +484,19 @@
         <v>44954.258819444447</v>
       </c>
       <c r="C2" s="1">
-        <v>44954.373761574076</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
+        <v>44958.373761574076</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -500,17 +506,17 @@
       <c r="C3" s="1">
         <v>44954.572546296295</v>
       </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -518,19 +524,19 @@
         <v>44954.585416666669</v>
       </c>
       <c r="C4" s="1">
-        <v>44954.729155092595</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
+        <v>44955.729155092595</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -540,17 +546,17 @@
       <c r="C5" s="1">
         <v>44956.392488425925</v>
       </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
       <c r="E5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -558,19 +564,19 @@
         <v>44956.473101851851</v>
       </c>
       <c r="C6" s="1">
-        <v>44956.696157407408</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
+        <v>44958.696157407408</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F6">
+        <v>18</v>
+      </c>
+      <c r="G6">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -578,19 +584,19 @@
         <v>44602.083067129628</v>
       </c>
       <c r="C7" s="1">
-        <v>44602.064131944448</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
+        <v>44602.439131944448</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -600,17 +606,17 @@
       <c r="C8" s="1">
         <v>44625.141041666669</v>
       </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -620,17 +626,17 @@
       <c r="C9" s="1">
         <v>44627.573344907411</v>
       </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
       <c r="E9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F9">
+        <v>12</v>
+      </c>
+      <c r="G9">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -640,17 +646,17 @@
       <c r="C10" s="1">
         <v>44634.504594907405</v>
       </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -658,19 +664,19 @@
         <v>44635.02306712963</v>
       </c>
       <c r="C11" s="1">
-        <v>44635.389363425929</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
+        <v>44636.389363425929</v>
       </c>
       <c r="E11" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -680,17 +686,17 @@
       <c r="C12" s="1">
         <v>44638.399317129632</v>
       </c>
-      <c r="D12" t="s">
-        <v>1</v>
-      </c>
       <c r="E12" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F12">
+        <v>13</v>
+      </c>
+      <c r="G12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -698,19 +704,19 @@
         <v>44650.745833333334</v>
       </c>
       <c r="C13" s="1">
-        <v>44650.974027777775</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
+        <v>44651.974027777775</v>
       </c>
       <c r="E13" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -720,17 +726,17 @@
       <c r="C14" s="1">
         <v>44651.045775462961</v>
       </c>
-      <c r="D14" t="s">
-        <v>1</v>
-      </c>
       <c r="E14" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -738,19 +744,19 @@
         <v>44659.51903935185</v>
       </c>
       <c r="C15" s="1">
-        <v>44659.776203703703</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1</v>
+        <v>44660.776203703703</v>
       </c>
       <c r="E15" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -760,17 +766,17 @@
       <c r="C16" s="1">
         <v>44665.947002314817</v>
       </c>
-      <c r="D16" t="s">
-        <v>1</v>
-      </c>
       <c r="E16" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -780,17 +786,17 @@
       <c r="C17" s="1">
         <v>44666.608032407406</v>
       </c>
-      <c r="D17" t="s">
-        <v>1</v>
-      </c>
       <c r="E17" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F17">
+        <v>19</v>
+      </c>
+      <c r="G17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -800,17 +806,17 @@
       <c r="C18" s="1">
         <v>44671.553657407407</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>13</v>
+      </c>
+      <c r="G18">
         <v>1</v>
       </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -820,17 +826,17 @@
       <c r="C19" s="1">
         <v>44675.479444444441</v>
       </c>
-      <c r="D19" t="s">
-        <v>1</v>
-      </c>
       <c r="E19" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -840,17 +846,17 @@
       <c r="C20" s="1">
         <v>44688.01703703704</v>
       </c>
-      <c r="D20" t="s">
-        <v>1</v>
-      </c>
       <c r="E20" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F20">
+        <v>18</v>
+      </c>
+      <c r="G20">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -858,19 +864,19 @@
         <v>44692.428310185183</v>
       </c>
       <c r="C21" s="1">
-        <v>44692.526180555556</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1</v>
+        <v>44693.526180555556</v>
       </c>
       <c r="E21" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F21">
+        <v>19</v>
+      </c>
+      <c r="G21">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -880,17 +886,17 @@
       <c r="C22" s="1">
         <v>44707.117407407408</v>
       </c>
-      <c r="D22" t="s">
-        <v>1</v>
-      </c>
       <c r="E22" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="G22">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -900,17 +906,17 @@
       <c r="C23" s="1">
         <v>44707.420081018521</v>
       </c>
-      <c r="D23" t="s">
-        <v>1</v>
-      </c>
       <c r="E23" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -920,17 +926,17 @@
       <c r="C24" s="1">
         <v>44709.930219907408</v>
       </c>
-      <c r="D24" t="s">
-        <v>1</v>
-      </c>
       <c r="E24" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -940,17 +946,17 @@
       <c r="C25" s="1">
         <v>44710.198483796295</v>
       </c>
-      <c r="D25" t="s">
-        <v>1</v>
-      </c>
       <c r="E25" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="G25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -960,17 +966,17 @@
       <c r="C26" s="1">
         <v>44714.714571759258</v>
       </c>
-      <c r="D26" t="s">
-        <v>1</v>
-      </c>
       <c r="E26" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -978,19 +984,19 @@
         <v>44731.456296296295</v>
       </c>
       <c r="C27" s="1">
-        <v>44731.452488425923</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1</v>
+        <v>44731.785821759258</v>
       </c>
       <c r="E27" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F27">
+        <v>13</v>
+      </c>
+      <c r="G27">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1000,17 +1006,17 @@
       <c r="C28" s="1">
         <v>44738.436493055553</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28">
         <v>1</v>
       </c>
-      <c r="E28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28">
+      <c r="G28">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1018,19 +1024,19 @@
         <v>44744.147569444445</v>
       </c>
       <c r="C29" s="1">
-        <v>44744.142592592594</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1</v>
+        <v>44745.142592592594</v>
       </c>
       <c r="E29" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F29">
+        <v>20</v>
+      </c>
+      <c r="G29">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1038,19 +1044,19 @@
         <v>44749.526319444441</v>
       </c>
       <c r="C30" s="1">
-        <v>44749.579907407409</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1</v>
+        <v>44750.579907407409</v>
       </c>
       <c r="E30" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1060,17 +1066,17 @@
       <c r="C31" s="1">
         <v>44753.614247685182</v>
       </c>
-      <c r="D31" t="s">
-        <v>1</v>
-      </c>
       <c r="E31" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1080,17 +1086,17 @@
       <c r="C32" s="1">
         <v>44757.560185185182</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>15</v>
+      </c>
+      <c r="G32">
         <v>1</v>
       </c>
-      <c r="E32" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1100,17 +1106,17 @@
       <c r="C33" s="1">
         <v>44760.803124999999</v>
       </c>
-      <c r="D33" t="s">
-        <v>1</v>
-      </c>
       <c r="E33" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F33">
+        <v>15</v>
+      </c>
+      <c r="G33">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1120,17 +1126,17 @@
       <c r="C34" s="1">
         <v>44761.239155092589</v>
       </c>
-      <c r="D34" t="s">
-        <v>1</v>
-      </c>
       <c r="E34" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F34">
+        <v>7</v>
+      </c>
+      <c r="G34">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1138,19 +1144,19 @@
         <v>44762.470335648148</v>
       </c>
       <c r="C35" s="1">
-        <v>44762.790578703702</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1</v>
+        <v>44770.790578703702</v>
       </c>
       <c r="E35" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1160,17 +1166,17 @@
       <c r="C36" s="1">
         <v>44762.986516203702</v>
       </c>
-      <c r="D36" t="s">
-        <v>1</v>
-      </c>
       <c r="E36" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F36">
+        <v>18</v>
+      </c>
+      <c r="G36">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1178,19 +1184,19 @@
         <v>44763.533368055556</v>
       </c>
       <c r="C37" s="1">
-        <v>44763.838900462964</v>
-      </c>
-      <c r="D37" t="s">
+        <v>44765.838900462964</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37">
         <v>1</v>
       </c>
-      <c r="E37" t="s">
-        <v>2</v>
-      </c>
-      <c r="F37">
+      <c r="G37">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1200,17 +1206,17 @@
       <c r="C38" s="1">
         <v>44766.025590277779</v>
       </c>
-      <c r="D38" t="s">
-        <v>1</v>
-      </c>
       <c r="E38" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F38">
+        <v>14</v>
+      </c>
+      <c r="G38">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1220,17 +1226,17 @@
       <c r="C39" s="1">
         <v>44776.919907407406</v>
       </c>
-      <c r="D39" t="s">
-        <v>1</v>
-      </c>
       <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+      <c r="G39">
         <v>2</v>
       </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1240,17 +1246,17 @@
       <c r="C40" s="1">
         <v>44795.067141203705</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40">
         <v>1</v>
       </c>
-      <c r="E40" t="s">
+      <c r="G40">
         <v>2</v>
       </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1260,17 +1266,17 @@
       <c r="C41" s="1">
         <v>44807.572187500002</v>
       </c>
-      <c r="D41" t="s">
-        <v>1</v>
-      </c>
       <c r="E41" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F41">
+        <v>8</v>
+      </c>
+      <c r="G41">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1280,17 +1286,17 @@
       <c r="C42" s="1">
         <v>44813.355046296296</v>
       </c>
-      <c r="D42" t="s">
-        <v>1</v>
-      </c>
       <c r="E42" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1300,17 +1306,17 @@
       <c r="C43" s="1">
         <v>44817.924004629633</v>
       </c>
-      <c r="D43" t="s">
-        <v>1</v>
-      </c>
       <c r="E43" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1320,17 +1326,17 @@
       <c r="C44" s="1">
         <v>44832.476342592592</v>
       </c>
-      <c r="D44" t="s">
-        <v>1</v>
-      </c>
       <c r="E44" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F44">
+        <v>18</v>
+      </c>
+      <c r="G44">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1340,17 +1346,17 @@
       <c r="C45" s="1">
         <v>44832.50037037037</v>
       </c>
-      <c r="D45" t="s">
-        <v>1</v>
-      </c>
       <c r="E45" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F45">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1360,17 +1366,17 @@
       <c r="C46" s="1">
         <v>44837.276921296296</v>
       </c>
-      <c r="D46" t="s">
-        <v>1</v>
-      </c>
       <c r="E46" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F46">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1380,17 +1386,17 @@
       <c r="C47" s="1">
         <v>44842.135868055557</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47">
         <v>1</v>
       </c>
-      <c r="E47" t="s">
-        <v>2</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1398,19 +1404,19 @@
         <v>44850.994409722225</v>
       </c>
       <c r="C48" s="1">
-        <v>44851.243136574078</v>
-      </c>
-      <c r="D48" t="s">
+        <v>44852.243136574078</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48">
+        <v>20</v>
+      </c>
+      <c r="G48">
         <v>1</v>
       </c>
-      <c r="E48" t="s">
-        <v>2</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1420,17 +1426,17 @@
       <c r="C49" s="1">
         <v>44872.90457175926</v>
       </c>
-      <c r="D49" t="s">
-        <v>1</v>
-      </c>
       <c r="E49" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F49">
+        <v>11</v>
+      </c>
+      <c r="G49">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1440,17 +1446,17 @@
       <c r="C50" s="1">
         <v>44893.936689814815</v>
       </c>
-      <c r="D50" t="s">
-        <v>1</v>
-      </c>
       <c r="E50" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F50">
+        <v>19</v>
+      </c>
+      <c r="G50">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1458,23 +1464,24 @@
         <v>44902.006053240744</v>
       </c>
       <c r="C51" s="1">
-        <v>44902.326747685183</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1</v>
+        <v>44903.326747685183</v>
       </c>
       <c r="E51" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F51">
+        <v>10</v>
+      </c>
+      <c r="G51">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:F88">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:G88">
     <sortCondition ref="B1:B88"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>